--- a/biology/Zoologie/Hyla_molleri/Hyla_molleri.xlsx
+++ b/biology/Zoologie/Hyla_molleri/Hyla_molleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyla molleri est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyla molleri est une espèce d'amphibiens de la famille des Hylidae.
 Elle est parfois appelée en français Rainette ibérique.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Espagne, au Portugal et dans le sud-ouest de la France[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Espagne, au Portugal et dans le sud-ouest de la France.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a longtemps été considérée comme une sous-espèce de la Rainette verte jusqu’à ce qu'une étude de phylogénie moléculaire ait montré qu'il s'agissait bien d'une espèce distincte[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a longtemps été considérée comme une sous-espèce de la Rainette verte jusqu’à ce qu'une étude de phylogénie moléculaire ait montré qu'il s'agissait bien d'une espèce distincte.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Adolphe F. Moller (1842-1920)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Adolphe F. Moller (1842-1920).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bedriaga, 1890 "1889" : Die Lurche Europa's. Bulletin de la Société Impériale des Naturalistes de Moscou, Nouvelle série, vol. 3, p. 466–622 (texte intégral).</t>
         </is>
